--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-586224.1327769581</v>
+        <v>-588111.7142933601</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>111.1023876523963</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>272.7909896926282</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>23.02457248166897</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>39.58626266897635</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>5.804409982263771</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>215.5278181602327</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,28 +1054,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.264003285459224</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>10.64007217348914</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>37.87240877753089</v>
+        <v>194.5337435077652</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>8.546296656423056</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>83.82466560786639</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>148.4304744104652</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.1450336847794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.5016905511566</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750031</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.0294537590051</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>254.9418458846152</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>100.6429089206</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>44.57730188590639</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>47.78845275957332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>40.17629646968673</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.43728102995796</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.62872355338</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700706</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965534</v>
+        <v>93.4122163896551</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801216</v>
+        <v>91.23070601801192</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437423</v>
+        <v>90.21779139437399</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897911</v>
+        <v>93.71057173897887</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571498</v>
+        <v>55.21598883571475</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523555</v>
       </c>
       <c r="S31" t="n">
-        <v>52.63108028118523</v>
+        <v>112.1232040470695</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700201</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952707</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080337</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.5063987604799</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235375</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692779</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>941.2608351981287</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="C2" t="n">
-        <v>941.2608351981287</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D2" t="n">
-        <v>941.2608351981287</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="X2" t="n">
-        <v>1718.000007238062</v>
+        <v>2070.717079250664</v>
       </c>
       <c r="Y2" t="n">
-        <v>1327.86067526225</v>
+        <v>1680.577747274852</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>704.8718402855565</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>477.5636529541582</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>477.5636529541582</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8791647482714</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="X4" t="n">
-        <v>222.8791647482714</v>
+        <v>688.1428602983775</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.8791647482714</v>
+        <v>688.1428602983775</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1369.416431066818</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312744</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1759.555763042629</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1369.416431066818</v>
+        <v>1639.851790143458</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4656,13 +4656,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.139433308417</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>110.3470539032191</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>110.3470539032191</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4732,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>500.139433308417</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.139433308417</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1623.178216428726</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="C8" t="n">
-        <v>1254.215699488315</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="D8" t="n">
-        <v>895.9500008815642</v>
+        <v>1381.388493300343</v>
       </c>
       <c r="E8" t="n">
-        <v>510.1617482833199</v>
+        <v>995.6002407020992</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404538</v>
+        <v>1739.654191907094</v>
       </c>
       <c r="Y8" t="n">
-        <v>1623.178216428726</v>
+        <v>1739.654191907094</v>
       </c>
     </row>
     <row r="9">
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.57560470564027</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C10" t="n">
-        <v>62.57560470564027</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406182</v>
+        <v>643.4576048045491</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406182</v>
+        <v>354.283994459117</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406182</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W10" t="n">
-        <v>290.5651556036576</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X10" t="n">
-        <v>62.57560470564027</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.57560470564027</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>394.5250474102529</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C13" t="n">
-        <v>394.5250474102529</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="D13" t="n">
-        <v>394.5250474102529</v>
+        <v>395.0599571744619</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>247.1468635920689</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>247.1468635920689</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5242,7 +5242,7 @@
         <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>576.1735122404926</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="14">
@@ -5258,25 +5258,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5291,37 +5291,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610115</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331046</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207689</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383757</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1315.581229597138</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1315.581229597138</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1315.581229597138</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>1060.896741391251</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>1060.896741391251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.2823606383756</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C19" t="n">
-        <v>412.2823606383756</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D19" t="n">
-        <v>412.2823606383756</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,7 +5689,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W19" t="n">
-        <v>1009.579090436494</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="X19" t="n">
-        <v>781.5895395384766</v>
+        <v>762.9293510964552</v>
       </c>
       <c r="Y19" t="n">
-        <v>560.7969603949465</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="20">
@@ -5732,25 +5732,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514083</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.3990000507114</v>
+        <v>517.9294177607305</v>
       </c>
       <c r="C22" t="n">
-        <v>562.3990000507114</v>
+        <v>348.9932348328236</v>
       </c>
       <c r="D22" t="n">
-        <v>412.2823606383756</v>
+        <v>198.8765954204879</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>198.8765954204879</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404653</v>
+        <v>198.8765954204879</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>1009.867621687013</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W22" t="n">
-        <v>964.8400440244812</v>
+        <v>920.3704617345003</v>
       </c>
       <c r="X22" t="n">
-        <v>964.8400440244812</v>
+        <v>920.3704617345003</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.0474648809511</v>
+        <v>699.5778825909701</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>485.520085263587</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.8045051785809</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="C25" t="n">
-        <v>358.8683222506741</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6148,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>1226.859690943799</v>
+        <v>755.1831334811266</v>
       </c>
       <c r="W25" t="n">
-        <v>937.4425209068381</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="X25" t="n">
-        <v>709.4529700088208</v>
+        <v>714.6010158349783</v>
       </c>
       <c r="Y25" t="n">
-        <v>709.4529700088208</v>
+        <v>714.6010158349783</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,19 +6212,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6236,19 +6236,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>352.4535582568372</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>183.5173753289303</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688068</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799358</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>754.894602230607</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>754.894602230607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>534.1020230870769</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6479,7 +6479,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6558,10 +6558,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>750.8748194215254</v>
+        <v>638.460363022715</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749892</v>
+        <v>525.2850453761789</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>430.9292712452142</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430019</v>
+        <v>338.777042944192</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276531</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>152.9908175569674</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933505</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056076</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056074</v>
+        <v>1880.811824899272</v>
       </c>
       <c r="S31" t="n">
-        <v>1882.963355701341</v>
+        <v>1767.556063235565</v>
       </c>
       <c r="T31" t="n">
-        <v>1714.938805772218</v>
+        <v>1767.556063235565</v>
       </c>
       <c r="U31" t="n">
-        <v>1481.571032267147</v>
+        <v>1534.188289730495</v>
       </c>
       <c r="V31" t="n">
-        <v>1282.647409342631</v>
+        <v>1335.264666805979</v>
       </c>
       <c r="W31" t="n">
-        <v>1048.991104587041</v>
+        <v>1101.608362050389</v>
       </c>
       <c r="X31" t="n">
-        <v>876.7624189703944</v>
+        <v>929.3796764337428</v>
       </c>
       <c r="Y31" t="n">
-        <v>876.7624189703944</v>
+        <v>764.3479625715837</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,16 +6716,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083205</v>
@@ -6850,16 +6850,16 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649692</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="35">
@@ -6914,52 +6914,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,10 +7090,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7163,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7391,52 +7391,52 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108338</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222968</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506734</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083214</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504521</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045215</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010324</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>199.7396287231148</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>18.06309405291242</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>221.54756105839</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>69.4396196673154</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>16.41911943244668</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.80252642293217</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>31.58115245197575</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>65.85065954277756</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24187,7 +24187,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9456964506846</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>204.3491905642547</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.3467018669043</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>63.1781919882544</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348203</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>90.086473073861</v>
+        <v>30.59434930797646</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.344304429832</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
       <c r="C2" t="n">
         <v>225786.486712678</v>
@@ -26329,31 +26329,31 @@
         <v>215065.9828557399</v>
       </c>
       <c r="H2" t="n">
+        <v>215065.9828557397</v>
+      </c>
+      <c r="I2" t="n">
         <v>215065.9828557398</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>215065.9828557399</v>
-      </c>
-      <c r="J2" t="n">
-        <v>215065.9828557398</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
+        <v>225786.4867126781</v>
+      </c>
+      <c r="O2" t="n">
         <v>225786.4867126782</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>225786.4867126781</v>
-      </c>
-      <c r="P2" t="n">
-        <v>225786.4867126782</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.6053028458</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086693</v>
+        <v>10342.90680086673</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284581</v>
       </c>
     </row>
     <row r="4">
@@ -26424,16 +26424,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="F4" t="n">
-        <v>22174.60758687072</v>
-      </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,19 +26442,19 @@
         <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106723</v>
+        <v>40339.2301010673</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="M4" t="n">
         <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340947</v>
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-612673.3383518003</v>
+        <v>-612673.3383518005</v>
       </c>
       <c r="C6" t="n">
-        <v>-22705.45913725581</v>
+        <v>-22705.45913725591</v>
       </c>
       <c r="D6" t="n">
         <v>-22705.45913725589</v>
       </c>
       <c r="E6" t="n">
-        <v>-424255.9871567435</v>
+        <v>-424353.4462827157</v>
       </c>
       <c r="F6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941804</v>
       </c>
       <c r="G6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941804</v>
       </c>
       <c r="H6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941802</v>
       </c>
       <c r="I6" t="n">
-        <v>100904.0493201525</v>
+        <v>100806.5901941803</v>
       </c>
       <c r="J6" t="n">
-        <v>-75519.16987244054</v>
+        <v>-75616.62899841243</v>
       </c>
       <c r="K6" t="n">
-        <v>42622.13160576296</v>
+        <v>42603.63786782832</v>
       </c>
       <c r="L6" t="n">
-        <v>73135.07926359457</v>
+        <v>73135.07926359482</v>
       </c>
       <c r="M6" t="n">
-        <v>-51323.02916937559</v>
+        <v>-51323.02916937563</v>
       </c>
       <c r="N6" t="n">
+        <v>83477.98606446154</v>
+      </c>
+      <c r="O6" t="n">
         <v>83477.98606446157</v>
       </c>
-      <c r="O6" t="n">
-        <v>83477.9860644615</v>
-      </c>
       <c r="P6" t="n">
-        <v>39315.38076161593</v>
+        <v>39315.38076161574</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26756,7 +26756,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26765,7 +26765,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108367</v>
+        <v>12.92863350108342</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855703</v>
+        <v>55.20325662855726</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="3">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>271.6314540110843</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>96.94011098584082</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>189.1209664683499</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>246.9367356676146</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>359.4684817887438</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>139.1552234604503</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>165.9828178131686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>124.3255496188491</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>369.0036369641805</v>
+        <v>212.3423022339463</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>140.0691763617893</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>141.2104398502179</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855725</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35659,7 +35659,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504663</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>350.3150673110541</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>609.76039124675</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504662</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412253</v>
+        <v>67.71102679412277</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584678</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075298</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.586857240358</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043176</v>
+        <v>94.428956600432</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37087,10 +37087,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,16 +37154,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
